--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>https://www.londonstockexchange.com/</t>
+  </si>
+  <si>
+    <t>ResultFolderPath</t>
+  </si>
+  <si>
+    <t>C:\UiPath\Results</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,7 +552,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -631,7 +637,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -166,13 +166,19 @@
   </si>
   <si>
     <t>C:\UiPath\Results</t>
+  </si>
+  <si>
+    <t>ResultBucketName</t>
+  </si>
+  <si>
+    <t>LSE_Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -203,6 +209,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -235,6 +248,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,15 +566,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -597,7 +611,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -608,7 +622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -618,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -645,7 +659,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1651,12 +1672,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1693,7 +1714,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1818,7 +1839,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2812,12 +2833,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>LSE_Results</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>msedge</t>
   </si>
 </sst>
 </file>
@@ -566,7 +572,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -667,7 +673,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1669,7 +1682,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
